--- a/statistics/HistoricalDistanceData/historical_distance/Q2391690-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q2391690-en.xlsx
@@ -31,57 +31,57 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Desert storm hits Taranaki</t>
+  </si>
+  <si>
+    <t>Are the dust storms radioactive? Australian scientists study Aussie dust from New Zealand</t>
+  </si>
+  <si>
+    <t>Melbourne Airport warns of delays</t>
+  </si>
+  <si>
+    <t>Red dust: face masks flying off the shelves</t>
+  </si>
+  <si>
+    <t>Dust Storm Hits Brisbane, Queensland</t>
+  </si>
+  <si>
+    <t>Red dust cloud covers Sydney</t>
+  </si>
+  <si>
     <t>Red dust covers Sydney</t>
   </si>
   <si>
-    <t>Desert storm hits Taranaki</t>
-  </si>
-  <si>
-    <t>Red dust cloud covers Sydney</t>
-  </si>
-  <si>
-    <t>Melbourne Airport warns of delays</t>
-  </si>
-  <si>
-    <t>Red dust: face masks flying off the shelves</t>
-  </si>
-  <si>
     <t>Canberra disappears in the dust</t>
   </si>
   <si>
-    <t>Dust Storm Hits Brisbane, Queensland</t>
-  </si>
-  <si>
-    <t>Are the dust storms radioactive? Australian scientists study Aussie dust from New Zealand</t>
-  </si>
-  <si>
     <t>Brisbane CBD dusted: Sydney storm heads north</t>
   </si>
   <si>
     <t>Sydney dust storm worst in 70 years, says weather bureau</t>
   </si>
   <si>
+    <t>2009-09-25T10:40:00UTC</t>
+  </si>
+  <si>
+    <t>2009-09-26T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2009-09-23T08:12:00UTC</t>
+  </si>
+  <si>
+    <t>2009-09-23T01:47:00UTC</t>
+  </si>
+  <si>
+    <t>2009-09-23T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2009-09-23T06:19:29UTC</t>
   </si>
   <si>
-    <t>2009-09-25T10:40:00UTC</t>
-  </si>
-  <si>
-    <t>2009-09-23T08:12:00UTC</t>
-  </si>
-  <si>
-    <t>2009-09-23T01:47:00UTC</t>
-  </si>
-  <si>
     <t>2009-09-22T00:00:00UTC</t>
   </si>
   <si>
-    <t>2009-09-23T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2009-09-26T00:00:00UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -91,28 +91,28 @@
     <t>day_2_to_30</t>
   </si>
   <si>
+    <t>http://www.stuff.co.nz/national/2901968/Desert-storm-hits-Taranaki</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20090928034025/http://www.news.com.au/story/0,27574,26127235-421,00.html</t>
+  </si>
+  <si>
+    <t>http://www.abc.net.au/news/stories/2009/09/23/2693764.htm</t>
+  </si>
+  <si>
+    <t>http://www.smh.com.au/environment/red-dust-face-masks-flying-off-the-shelves-20090923-g1jc.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20090930184642/http://www.brisbanetimes.com.au/queensland/brisbane-awakes-from-haze-as-dust-settles-20090923-g0wm.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20090923100531/http://news.bbc.co.uk/2/hi/asia-pacific/8270125.stm</t>
+  </si>
+  <si>
     <t>http://news.bbc.co.uk/2/hi/asia-pacific/8270125.stm</t>
   </si>
   <si>
-    <t>http://www.stuff.co.nz/national/2901968/Desert-storm-hits-Taranaki</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20090923100531/http://news.bbc.co.uk/2/hi/asia-pacific/8270125.stm</t>
-  </si>
-  <si>
-    <t>http://www.abc.net.au/news/stories/2009/09/23/2693764.htm</t>
-  </si>
-  <si>
-    <t>http://www.smh.com.au/environment/red-dust-face-masks-flying-off-the-shelves-20090923-g1jc.html</t>
-  </si>
-  <si>
     <t>http://www.abc.net.au/news/photos/2009/09/22/2693220.htm</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20090930184642/http://www.brisbanetimes.com.au/queensland/brisbane-awakes-from-haze-as-dust-settles-20090923-g0wm.html</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20090928034025/http://www.news.com.au/story/0,27574,26127235-421,00.html</t>
   </si>
   <si>
     <t>http://www.theage.com.au/environment/brisbane-cbd-dusted-sydney-storm-heads-north-20090923-g0y1.html?autostart=1</t>
@@ -520,7 +520,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -537,7 +537,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -551,7 +551,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>22</v>
@@ -568,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -585,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -639,7 +639,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -653,7 +653,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>22</v>
